--- a/excel/approche_mesh_RF.xlsx
+++ b/excel/approche_mesh_RF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="23715" windowHeight="13110"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19440" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="xyToExcel" sheetId="1" r:id="rId1"/>
@@ -1360,11 +1360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115371008"/>
-        <c:axId val="115369472"/>
+        <c:axId val="322509824"/>
+        <c:axId val="127648896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115371008"/>
+        <c:axId val="322509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,12 +1374,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115369472"/>
+        <c:crossAx val="127648896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115369472"/>
+        <c:axId val="127648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115371008"/>
+        <c:crossAx val="322509824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1416,15 +1416,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
